--- a/MMO-Client/excel2json/excel/PanelDefine.xlsx
+++ b/MMO-Client/excel2json/excel/PanelDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19500" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="PanelDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>PanelName</t>
   </si>
@@ -47,49 +47,43 @@
     <t>LoginPanel</t>
   </si>
   <si>
-    <t>Prefabs/UI/LoginPanel</t>
+    <t>UI/Prefabs/LoginPanel</t>
   </si>
   <si>
     <t>RegisterPanel</t>
   </si>
   <si>
-    <t>Prefabs/UI/RegisterPanel</t>
+    <t>UI/Prefabs/RegisterPanel</t>
   </si>
   <si>
     <t>SelectRolePanel</t>
   </si>
   <si>
-    <t>Prefabs/UI/SelectRolePanel</t>
+    <t>UI/Prefabs/SelectRolePanel</t>
   </si>
   <si>
     <t>CreateRolePanel</t>
   </si>
   <si>
-    <t>Prefabs/UI/CreateRolePanel</t>
+    <t>UI/Prefabs/CreateRolePanel</t>
   </si>
   <si>
     <t>RoleListItem</t>
   </si>
   <si>
-    <t>Prefabs/UI/RoleListItem</t>
+    <t>UI/Prefabs/RoleListItem</t>
   </si>
   <si>
     <t>CombatPanel</t>
   </si>
   <si>
-    <t>Prefabs/UI/CombatPanel</t>
-  </si>
-  <si>
-    <t>PackagePanel</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/Package/PackagePanel</t>
+    <t>UI/Prefabs/CombatPanel</t>
   </si>
   <si>
     <t>KnapsackPanel</t>
   </si>
   <si>
-    <t>Prefabs/UI/Inventory/KnapsackPanel</t>
+    <t>UI/Prefabs/Inventory/KnapsackPanel</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
@@ -1147,14 +1141,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/MMO-Client/excel2json/excel/PanelDefine.xlsx
+++ b/MMO-Client/excel2json/excel/PanelDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="PanelDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>PanelName</t>
   </si>
@@ -47,43 +47,22 @@
     <t>LoginPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/LoginPanel</t>
-  </si>
-  <si>
     <t>RegisterPanel</t>
-  </si>
-  <si>
-    <t>UI/Prefabs/RegisterPanel</t>
   </si>
   <si>
     <t>SelectRolePanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/SelectRolePanel</t>
-  </si>
-  <si>
     <t>CreateRolePanel</t>
-  </si>
-  <si>
-    <t>UI/Prefabs/CreateRolePanel</t>
   </si>
   <si>
     <t>RoleListItem</t>
   </si>
   <si>
-    <t>UI/Prefabs/RoleListItem</t>
-  </si>
-  <si>
     <t>CombatPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/CombatPanel</t>
-  </si>
-  <si>
     <t>KnapsackPanel</t>
-  </si>
-  <si>
-    <t>UI/Prefabs/Inventory/KnapsackPanel</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1026,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
@@ -1090,55 +1069,55 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/MMO-Client/excel2json/excel/PanelDefine.xlsx
+++ b/MMO-Client/excel2json/excel/PanelDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>PanelName</t>
   </si>
@@ -47,22 +47,43 @@
     <t>LoginPanel</t>
   </si>
   <si>
+    <t>UI/Prefabs/LoginPanel</t>
+  </si>
+  <si>
     <t>RegisterPanel</t>
   </si>
   <si>
+    <t>UI/Prefabs/RegisterPanel</t>
+  </si>
+  <si>
     <t>SelectRolePanel</t>
   </si>
   <si>
+    <t>UI/Prefabs/SelectRolePanel</t>
+  </si>
+  <si>
     <t>CreateRolePanel</t>
   </si>
   <si>
+    <t>UI/Prefabs/CreateRolePanel</t>
+  </si>
+  <si>
     <t>RoleListItem</t>
   </si>
   <si>
+    <t>UI/Prefabs/RoleListItem</t>
+  </si>
+  <si>
     <t>CombatPanel</t>
   </si>
   <si>
+    <t>UI/Prefabs/CombatPanel</t>
+  </si>
+  <si>
     <t>KnapsackPanel</t>
+  </si>
+  <si>
+    <t>UI/Prefabs/Inventory/KnapsackPanel</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1047,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
@@ -1069,55 +1090,55 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/MMO-Client/excel2json/excel/PanelDefine.xlsx
+++ b/MMO-Client/excel2json/excel/PanelDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>PanelName</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>UI/Prefabs/Inventory/KnapsackPanel</t>
+  </si>
+  <si>
+    <t>VocationItem</t>
+  </si>
+  <si>
+    <t>UI/Prefabs/VocationItem</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
@@ -1141,6 +1147,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/MMO-Client/excel2json/excel/PanelDefine.xlsx
+++ b/MMO-Client/excel2json/excel/PanelDefine.xlsx
@@ -47,49 +47,49 @@
     <t>LoginPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/LoginPanel</t>
+    <t>UI/Prefabs/LoginPanel.prefab</t>
   </si>
   <si>
     <t>RegisterPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/RegisterPanel</t>
+    <t>UI/Prefabs/RegisterPanel.prefab</t>
   </si>
   <si>
     <t>SelectRolePanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/SelectRolePanel</t>
+    <t>UI/Prefabs/SelectRolePanel.prefab</t>
   </si>
   <si>
     <t>CreateRolePanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/CreateRolePanel</t>
+    <t>UI/Prefabs/CreateRolePanel.prefab</t>
   </si>
   <si>
     <t>RoleListItem</t>
   </si>
   <si>
-    <t>UI/Prefabs/RoleListItem</t>
+    <t>UI/Prefabs/RoleListItem.prefab</t>
   </si>
   <si>
     <t>CombatPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/CombatPanel</t>
+    <t>UI/Prefabs/CombatPanel.prefab</t>
   </si>
   <si>
     <t>KnapsackPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/Inventory/KnapsackPanel</t>
+    <t>UI/Prefabs/Inventory/KnapsackPanel.prefab</t>
   </si>
   <si>
     <t>VocationItem</t>
   </si>
   <si>
-    <t>UI/Prefabs/VocationItem</t>
+    <t>UI/Prefabs/VocationItem.prefab</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>

--- a/MMO-Client/excel2json/excel/PanelDefine.xlsx
+++ b/MMO-Client/excel2json/excel/PanelDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>PanelName</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>UI/Prefabs/VocationItem.prefab</t>
+  </si>
+  <si>
+    <t>ServerPanel</t>
+  </si>
+  <si>
+    <t>UI/Prefabs/Server/ServerPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
@@ -1155,6 +1161,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
